--- a/medicine/Handicap/114_(numéro_d'appel_d'urgence)/114_(numéro_d'appel_d'urgence).xlsx
+++ b/medicine/Handicap/114_(numéro_d'appel_d'urgence)/114_(numéro_d'appel_d'urgence).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>114_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>114_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 114, numéro d’appel d’urgence français pour les personnes sourdes et malentendantes, est un numéro unique, national, gratuit, accessible en permanence par visiophonie, tchat, SMS ou fax. Des agents de régulation du 114, sourds et entendants, gèrent l’appel et contactent le service d’urgence le plus proche : SAMU (15), Police-Gendarmerie (17), Sapeurs-Pompiers (18)[1].
-Le 114 est un service public qui fonctionne sous l’égide du Comité Interministériel du Handicap. Il est financé par le Ministère de l’Intérieur français et par le Ministère des Solidarités et de la Santé. Les associations d’usagers participent à son évolution. Sa mise en place a été confiée au Centre Hospitalier Universitaire Grenoble-Alpes. Le numéro d'urgence a été mis en service le 14 septembre 2011[2].
-Le 114 est le numéro national pour les appels d’urgence en France métropolitaine et les départements et régions d’outre-mer[3] accessible aux personnes qui ont des difficultés à entendre ou à parler (personnes sourdes, malentendantes, aphasiques, dysphasiques)[4],[5].
+Le 114, numéro d’appel d’urgence français pour les personnes sourdes et malentendantes, est un numéro unique, national, gratuit, accessible en permanence par visiophonie, tchat, SMS ou fax. Des agents de régulation du 114, sourds et entendants, gèrent l’appel et contactent le service d’urgence le plus proche : SAMU (15), Police-Gendarmerie (17), Sapeurs-Pompiers (18).
+Le 114 est un service public qui fonctionne sous l’égide du Comité Interministériel du Handicap. Il est financé par le Ministère de l’Intérieur français et par le Ministère des Solidarités et de la Santé. Les associations d’usagers participent à son évolution. Sa mise en place a été confiée au Centre Hospitalier Universitaire Grenoble-Alpes. Le numéro d'urgence a été mis en service le 14 septembre 2011.
+Le 114 est le numéro national pour les appels d’urgence en France métropolitaine et les départements et régions d’outre-mer accessible aux personnes qui ont des difficultés à entendre ou à parler (personnes sourdes, malentendantes, aphasiques, dysphasiques),.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>114_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>114_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Les principes fondateurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toute personne ayant des difficultés à entendre ou à parler, lorsqu’elle se trouve en situation d’urgence, qu’elle soit victime ou témoin, peut alerter et communiquer via le 114, numéro national unique et gratuit.
-Le 114 est principalement destiné aux personnes sourdes et malentendantes, mais peut être utilisé par toute personne qui en a besoin (toute personne ayant des difficultés à entendre ou à parler en situation d’urgence[1])
+Le 114 est principalement destiné aux personnes sourdes et malentendantes, mais peut être utilisé par toute personne qui en a besoin (toute personne ayant des difficultés à entendre ou à parler en situation d’urgence)
 Il ne se substitue pas aux centres d’appel urgent existants (15, 17, 18, 112…) mais en permet l’accès aux personnes qui ne peuvent pas téléphoner.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>114_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>114_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’appel au 114 peut se faire depuis un smartphone, grâce à une application (visioconférence, tchat, voix/retour texte), depuis un site internet (visioconférence, tchat, voix/retour texte), par SMS ou par fax.
-L'application sur smartphone[6] et le site sur internet (www.urgence114.fr) ont la possibilité, par la visiophonie, de communiquer par la langue des signes[7].
-L'application sur smartphone et le site sur internet ont également la possibilité le pré-enregistrer les coordonnées de la personne afin de gagner du temps[7].
+L'application sur smartphone et le site sur internet (www.urgence114.fr) ont la possibilité, par la visiophonie, de communiquer par la langue des signes.
+L'application sur smartphone et le site sur internet ont également la possibilité le pré-enregistrer les coordonnées de la personne afin de gagner du temps.
 Dès que les informations relatives au traitement de l’urgence sont recueillies (localisation, circonstances, identité de la personne, etc.), le 114 établit le lien direct avec le service d’urgence local concerné qui interviendra, si nécessaire, dans les plus brefs délais.
 </t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>114_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>114_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>La formation spécifique des agents de régulation 114</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les appels, selon leur type, sont traités soit par des agents entendants, soit par des agents sourds.
 Tous ont reçu une formation spécifique : 
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>114_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>114_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La France a participé au projet Reach 112 pendant trois ans. Le 114 a été primé en 2013 à Riga par l’Award « Next Generation 112 » délivré par l’EENA[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La France a participé au projet Reach 112 pendant trois ans. Le 114 a été primé en 2013 à Riga par l’Award « Next Generation 112 » délivré par l’EENA.
 </t>
         </is>
       </c>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>114_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>114_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,11 +667,13 @@
           <t>Dates clés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11 février 2005 : loi no 2005-102 pour l’égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées[9].
-14 avril 2008 : décret no 2008-346 du 14 avril 2008 relatif à la réception et à l'orientation des appels d'urgence des personnes déficientes auditives, il prévoit la mise en place d’un centre national de relais[10].
-1er février 2010 : arrêté qui désigne le CHU de Grenoble pour assurer la mise en place du 114 (arrêté du 1er février 2010 désignant l'établissement de santé assurant les missions du centre national de relais mentionné à l'article D. 98-8-1 du code des postes et des communications électroniques)[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>11 février 2005 : loi no 2005-102 pour l’égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées.
+14 avril 2008 : décret no 2008-346 du 14 avril 2008 relatif à la réception et à l'orientation des appels d'urgence des personnes déficientes auditives, il prévoit la mise en place d’un centre national de relais.
+1er février 2010 : arrêté qui désigne le CHU de Grenoble pour assurer la mise en place du 114 (arrêté du 1er février 2010 désignant l'établissement de santé assurant les missions du centre national de relais mentionné à l'article D. 98-8-1 du code des postes et des communications électroniques).
 Arrêté du 31 janvier 2011 : attribution au service du numéro court : 114.
 14 septembre 2011 : ouverture du 114 avec SMS et fax.
 19 novembre 2018 : lancement des autres moyens de communication (Fax, Radio, etc.).</t>
